--- a/aggregated_output/Lincoln_aggregated.xlsx
+++ b/aggregated_output/Lincoln_aggregated.xlsx
@@ -438,72 +438,72 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's preference for familiar methods and comprehensive information processing style, she might not immediately think of this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to look next without explicit guidance.</t>
+Why: The page shown is a repository page with various files and some information about the project. There is no clear indication or direct information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's preference for familiar methods and comprehensive information processing style, she might not immediately think of this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the page to find the relevant information.</t>
+Why: The page shown is a repository overview with files and some general information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to look next without explicit guidance.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct information about filing an issue. ABI, who prefers to use familiar methods and needs comprehensive information, might not immediately think of this page as a step toward finding information about filing an issue. The lack of explicit instructions or a clear path to filing an issue would likely deter ABI from considering this as a relevant step.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to look next.</t>
+Why: The page shown is a repository page with various files and information about the project. There is no clear indication or direct information about filing an issue. ABI, who prefers to use familiar methods and needs comprehensive information, might not immediately think of this page as a step toward finding information about filing an issue. The lack of explicit instructions or a clear path to filing an issue would likely deter ABI, given their low confidence in unfamiliar computing tasks and preference for process-oriented learning.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide any explicit information or guidance about filing an issue. The "issue" button on the side is not prominently highlighted or explained, which might make Abi hesitant to click it due to her low computer self-efficacy and preference for comprehensive information. Additionally, without clear instructions or a step-by-step process, Abi might not feel confident in taking this action.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for Abi to understand that clicking it might lead to information about filing an issue. Given Abi's comprehensive information processing style, she would likely read through the options available on the side panel. Additionally, the clear labeling helps mitigate her low computer self-efficacy, as it provides a direct and understandable action to take.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for explicit guidance. Given her comprehensive information processing style, she would likely read through the options available on the side panel and recognize that "Issues" is relevant to her task of filing an issue. Additionally, the clear labeling helps mitigate her low computer self-efficacy, making her feel more confident about taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's motivation to accomplish tasks efficiently. The label "Issues" is straightforward and directly related to the subgoal of filing an issue. Abi's comprehensive information processing style would lead her to read the available options on the side panel, and the clear labeling would make her confident in taking this action.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide explicit instructions or clear indications that clicking the "Issues" button on the side will lead to filing an issue. Abi prefers comprehensive information and step-by-step guidance, which is not present here. Additionally, due to her low computer self-efficacy, she might not feel confident in clicking the "Issues" button without knowing exactly what it will do. Abi's process-oriented learning style also means she would prefer more explicit guidance before taking an action.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for Abi to understand that clicking it might lead to information about filing an issue. This aligns with Abi's comprehensive information processing style, as she would likely read through the options available on the side panel. Additionally, the clear labeling supports her process-oriented learning style, providing a clear next step without requiring her to tinker or guess.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for explicit guidance. Given her comprehensive information processing style, she would likely read through the options available on the side panel and recognize that "Issues" is relevant to her task of filing an issue. Additionally, the clear labeling helps mitigate her low computer self-efficacy, making her feel more confident in taking this action.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for ABI to understand that clicking it might lead to information about filing an issue. ABI's comprehensive information processing style would likely lead them to read through the options available on the side panel, and the clear labeling aligns with their preference for process-oriented learning. Therefore, ABI would likely know what to do at this step and feel confident enough to take this action.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for Abi to understand that clicking it will likely lead to information about filing an issue. This aligns with her comprehensive information processing style, as she can see the button and understand its purpose without needing to tinker. Additionally, the clear labeling helps mitigate her low computer self-efficacy, as it provides a clear and direct action to take.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for ABI to understand that clicking it might lead to information about filing an issue. ABI's comprehensive information processing style and preference for process-oriented learning would guide them to look for clearly labeled options. The presence of the "Issues" button aligns with ABI's need for clear and direct instructions, making it likely that they will take this action.</t>
         </is>
       </c>
     </row>
@@ -511,73 +511,73 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking the "issue" button, Abi lands on a page listing existing issues. While this indicates some progress, the page does not provide explicit instructions or guidance on how to file a new issue. Abi might not immediately know that she is on the right track or how to proceed further due to her preference for comprehensive information and step-by-step guidance. The presence of a "New issue" button might not be immediately obvious or intuitive for her to click without additional context or instructions.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit information or instructions on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear, step-by-step instructions to feel confident she is making progress. Additionally, her low computer self-efficacy might make her hesitant to proceed without explicit guidance, leading to uncertainty about whether she is on the right track.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit instructions or information on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear guidance on the next steps. Additionally, her low computer self-efficacy might make her hesitant to proceed without explicit instructions, leading to uncertainty about whether she is making progress toward her goal.</t>
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates progress, it does not provide explicit information on how to file a new issue. Abi's comprehensive information processing style means she needs clear, detailed instructions to feel confident she is on the right track. Additionally, her low computer self-efficacy might make her uncertain about what to do next without explicit guidance. The presence of a "New issue" button is helpful, but without clear instructions or confirmation that this is the correct next step, Abi might not feel confident she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this page is relevant, it does not provide explicit instructions or clear guidance on how to file a new issue. Abi prefers comprehensive information and step-by-step processes, which are not provided here. Additionally, due to her low computer self-efficacy, she might not feel confident in figuring out the next steps on her own. The page does not clearly indicate that she is making progress toward her goal of filing an issue, nor does it provide all the information she needs to complete the task.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit information or guidance on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear instructions or a visible link/button that explicitly states how to file a new issue. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear guidance, as she might not feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit instructions or information on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear guidance on the next steps. Additionally, her low computer self-efficacy might make her uncertain about how to proceed without explicit instructions, leading to confusion and hesitation.</t>
+Why: After clicking the "Issues" button, ABI lands on a page listing existing issues. While this indicates progress, it does not provide explicit information or instructions on how to file a new issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately understand that they need to click the "New issue" button to proceed. The page lacks clear guidance or a step-by-step process for filing an issue, which could leave ABI uncertain about whether they are making progress toward their goal.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide clear instructions or information on how to file a new issue. Abi's comprehensive information processing style means she needs clear, step-by-step instructions, which are not present here. Additionally, her low computer self-efficacy might make her uncertain about what to do next, as there is no obvious guidance on filing a new issue. The "New issue" button is present, but without explicit instructions, Abi might not feel confident that she is making progress toward her goal.</t>
+Why: After clicking the "Issues" button, ABI lands on a page listing existing issues. While this indicates progress, it does not provide explicit information or instructions on how to file a new issue. ABI, who prefers comprehensive information and clear guidance, might not immediately understand that they need to click the "New issue" button to proceed. The page lacks clear, step-by-step instructions, which could make ABI feel uncertain about whether they are making progress toward their goal. This uncertainty, combined with ABI's low confidence in unfamiliar tasks, could hinder their ability to proceed confidently.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page lists existing issues but does not provide explicit instructions or guidance on how to file a new issue. While the "New issue" button is visible, it is not prominently highlighted or explained. Given Abi's preference for comprehensive information and step-by-step guidance, she might not immediately know that clicking the "New issue" button is the correct next step. Her low computer self-efficacy might also make her hesitant to click the button without clear instructions.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to identify. Given Abi's comprehensive information processing style, she would likely read through the page and notice this button. The clear labeling of the button helps mitigate her low computer self-efficacy, as it provides a direct and understandable action to take. Therefore, Abi would know what to do at this step and feel confident in taking this action.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The green "New issue" button is prominently displayed and clearly labeled, making it easy for Abi to identify the next step. Given her comprehensive information processing style, she would likely read through the options on the page and recognize that this button is relevant to her task of filing an issue. The clear labeling and prominent placement of the button help mitigate her low computer self-efficacy, making her feel confident about taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to notice. The label "New issue" is clear and directly related to Abi's subgoal of filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would recognize that clicking this button is the next logical step toward her goal. The page provides a straightforward path to proceed, which aligns with her need for clear and direct instructions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The green "New Issue" button is prominently displayed and clearly labeled, making it intuitive for Abi to understand that clicking it will allow her to file a new issue. The page is straightforward and does not overwhelm with too much information, aligning with Abi's comprehensive information processing style. Additionally, the clear labeling supports her process-oriented learning style, making it likely that she will know what to do at this step and feel confident in taking the action.</t>
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it clear and easy to identify. This aligns with Abi's comprehensive information processing style, as she would likely read through the options available on the page and recognize this as the next step. Additionally, the clear labeling supports her process-oriented learning style, providing a clear next step without requiring her to tinker or guess.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The green "New issue" button is prominently displayed and clearly labeled, making it easy for Abi to identify the next step in filing an issue. This aligns with her comprehensive information processing style, as she can easily see the button and understand its purpose. Additionally, the clear labeling helps mitigate her low computer self-efficacy, making her feel more confident in taking this action.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easily noticeable. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize this button as the next step in filing an issue. The clear labeling and prominent placement of the button provide sufficient guidance for ABI to understand what to do at this step and feel confident in taking this action.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The green "New issue" button is prominently displayed and clearly labeled, making it easy for Abi to understand that clicking it will allow her to file a new issue. This aligns with her comprehensive information processing style, as the button is straightforward and does not require her to tinker or guess its function. Additionally, the clear labeling helps mitigate her low computer self-efficacy, as it provides a direct and obvious action to take.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to identify. ABI, who prefers clear and direct instructions, will likely recognize that clicking this button is the next step toward filing an issue. The button's clear labeling and prominent placement align with ABI's need for straightforward navigation and process-oriented learning, making it likely that they will take this action.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, description, and other relevant details. This clear layout and labeling will help Abi understand that she is on the right track and making progress toward her goal. The presence of a "Create issue" button at the bottom further confirms that she is in the right place to file an issue. The page provides all the necessary information and fields required to complete the task, aligning with Abi's preference for comprehensive information.</t>
+Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, along with a "Create issue" button. This clear layout and labeling provide Abi with the necessary information to know she is making progress toward her goal. The straightforward design and instructions align with her comprehensive information processing style and help mitigate her low computer self-efficacy by providing a clear path to follow.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, description, and other relevant details. This clear structure and labeling align with Abi's comprehensive information processing style, allowing her to understand that she is making progress toward her goal. Additionally, the straightforward layout and explicit instructions help mitigate her low computer self-efficacy, making her feel confident that she is on the right track and has all the information she needs to file an issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, which are standard components for filing an issue. This clear layout and labeling align with Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style. The page provides all the necessary information and fields required to file an issue, making it evident to Abi that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking the "New Issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, description, assignee, milestone, labels, and due date. This structured format aligns with Abi's comprehensive information processing style and process-oriented learning style. The presence of a "Create issue" button at the bottom further confirms that she is on the right track and making progress toward her goal. The page provides all the necessary information and fields required to file an issue, making it clear that she is doing the right thing.</t>
+Why: After clicking the "New issue" button, Abi is taken to a page titled "New Issue" with fields to fill out for the title, type, and description of the issue. This page clearly indicates that she is in the right place to file a new issue, providing a straightforward form to complete. This aligns with Abi's comprehensive information processing style, as the page provides all necessary fields and options in a clear and organized manner. Additionally, the structured form supports her process-oriented learning style, guiding her through the steps needed to file an issue without requiring her to tinker or guess.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, description, and other relevant details. This clear layout and labeling align with Abi's comprehensive information processing style, as she can easily understand what information is required to file an issue. Additionally, the straightforward design and explicit instructions help mitigate her low computer self-efficacy, making her feel confident that she is making progress toward her goal and has all the information she needs to complete the task.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking the "New issue" button, ABI lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, and description of the issue. This clear and structured layout aligns with ABI's preference for comprehensive information and process-oriented learning. ABI will know that they are making progress toward their goal of filing an issue and will have all the necessary information and fields to complete the task.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled with fields for the title, type, description, assignee, milestone, labels, and due date. This structured format aligns with Abi's comprehensive information processing style, as it provides a clear, step-by-step process for filing an issue. Additionally, the presence of a "Create issue" button at the bottom reinforces that she is on the right track. The clear instructions and layout help mitigate her low computer self-efficacy, making her feel confident that she is making progress toward her goal.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking the "New issue" button, ABI lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, along with a "Create issue" button. This clear layout and labeling provide ABI with the necessary information to understand that they are on the right track and making progress toward their goal. The straightforward design aligns with ABI's preference for comprehensive information and process-oriented learning, ensuring they have all the information needed to proceed.</t>
         </is>
       </c>
     </row>

--- a/aggregated_output/Lincoln_aggregated.xlsx
+++ b/aggregated_output/Lincoln_aggregated.xlsx
@@ -1,37 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page primarily displays repository files and some general information about the project. There is no clear indication or direct information about filing an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar tasks, she is unlikely to consider this page as a step toward finding information about filing an issue. The lack of explicit guidance or instructions on this page would make it difficult for her to proceed confidently.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page primarily displays repository files and some general information about the project. There is no clear indication or direct information about filing an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar computing tasks, she is unlikely to consider this page as a step toward finding information about filing an issue. The lack of explicit guidance or relevant information on this page would not align with her motivations or information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with various files and some information about the project. However, it does not provide any direct or clear information about filing an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not likely consider this page as a step toward finding information about filing an issue. The lack of explicit instructions or links related to filing an issue would make ABI feel uncertain and unmotivated to proceed with this subgoal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository view with various files and folders listed. There is no clear indication or information about filing an issue. ABI, who prefers comprehensive information and is risk-averse, would not likely consider this page as a step toward finding information about filing an issue. The lack of explicit instructions or links related to filing an issue would make ABI uncertain and unmotivated to proceed with this subgoal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit information or instructions about filing an issue. The "Issues" button on the side is visible, but there is no clear indication that clicking it will lead to information about filing an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar tasks, she might not feel confident about what the "Issues" button will do. Additionally, Abi prefers process-oriented learning and might not be inclined to click on something without knowing its purpose, making it unlikely she will take this action.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates some progress, the page does not provide explicit instructions or comprehensive information on how to file a new issue. Abi might not immediately recognize that she needs to click the "New issue" button to proceed, especially since there is no clear guidance or step-by-step process provided. Given her need for comprehensive information and low confidence in unfamiliar tasks, Abi might feel uncertain about what to do next and whether she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it visually distinct and likely to catch Abi's attention. The label "New issue" is clear and directly related to her goal of filing an issue. Given Abi's comprehensive information processing style, she would likely recognize that this button is the next step in her process. Additionally, the clear labeling helps mitigate her low confidence in unfamiliar tasks, as it provides a straightforward action to take.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, and description of the issue. This layout is straightforward and directly related to her goal of filing an issue. The clear instructions and form fields provide the comprehensive information Abi needs to proceed confidently, aligning with her information processing style and mitigating her low confidence in unfamiliar tasks. Therefore, she will know she is making progress toward her goal and has the necessary information to continue.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for clear and direct information. Given that Abi is motivated to file an issue and the button is prominently displayed, she is likely to recognize this as the next step. The page provides a straightforward navigation option that does not require Abi to tinker or guess, which aligns with her information processing style and motivations.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will know she is on the "Issues" page, the page primarily lists existing issues without providing explicit information on how to file a new issue. Abi's comprehensive information processing style requires clear and detailed instructions, which are not present on this page. Additionally, her low computer self-efficacy means she might not feel confident in figuring out the next steps without explicit guidance. The "New issue" button is present, but without clear instructions or context, Abi might not be sure if this is the correct action to take.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed and clearly labeled, making it easy for Abi to identify as the next step in filing an issue. Given her motivation to file an issue and the straightforward labeling, she will likely recognize this as the correct action to take. The page is simple and not overwhelming, which aligns with her information processing style, allowing her to confidently proceed with this action.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon clicking the "New issue" button, Abi is taken to a page specifically for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, and description of the issue. This clear and straightforward layout aligns with Abi's need for comprehensive information and her motivation to file an issue. The presence of the "Create issue" button further confirms that she is on the right track and making progress toward her goal. The page provides all the necessary information and fields required to file an issue, ensuring that Abi knows she did the right thing and has the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide any explicit instructions or information about what the "Issues" button does. Given ABI's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she would likely feel uncertain about clicking the "Issues" button without knowing what it will lead to. The lack of clear guidance or context on the page would make ABI hesitant to take this action.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Issues" button, ABI lands on a page listing existing issues. While this indicates some progress, the page does not provide explicit information or instructions on how to file a new issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, might not immediately recognize that she needs to click the "New issue" button to proceed. The lack of clear guidance on this page would make ABI uncertain about whether she is making progress toward her goal and how to proceed further.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it visually distinct and likely to catch ABI's attention. Given ABI's comprehensive information processing style, she would likely read through the page and notice this button. The label "New issue" is clear and directly related to her goal of filing an issue, providing enough context for ABI to understand that clicking this button is the next step toward achieving her subgoal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "New issue" button, ABI lands on a page titled "New Issue" with clear fields for entering the title, type, and description of the issue. The page is straightforward and provides a clear structure for filing an issue, which aligns with ABI's preference for comprehensive information and process-oriented learning. The presence of the "Create issue" button further confirms that ABI is on the right track and making progress toward her goal. The layout and instructions are clear enough for ABI to understand that she is in the correct place to file an issue and proceed with the task.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Issues" button is clearly labeled on the side menu, which provides a straightforward indication of where to go to file an issue. ABI, who prefers comprehensive information, can see this option directly without needing to guess or tinker. The clear labeling helps mitigate ABI's low computer self-efficacy by providing a clear path to follow.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Issues" button, ABI lands on a page listing existing issues. While this indicates progress, the page does not provide explicit instructions or information on how to file a new issue. ABI, who prefers comprehensive information and has low computer self-efficacy, might not immediately understand that they need to click the "New issue" button to proceed. The lack of clear guidance on this page could leave ABI uncertain about the next steps, making it difficult for them to feel confident that they are making progress toward their goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easily noticeable. ABI, who prefers comprehensive information, can clearly see this button as the next step to take. The button's label is straightforward, reducing any ambiguity about its function. This clear and direct call to action aligns with ABI's need for explicit guidance, making it likely that ABI will know what to do at this step and feel confident in taking the action.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "New issue" button, ABI lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, along with a "Create issue" button. This layout is straightforward and provides all the necessary information for filing an issue. ABI, who prefers comprehensive information, will recognize that they are on the correct page and making progress toward their goal. The clear instructions and fields reduce ambiguity, aligning with ABI's need for explicit guidance and boosting their confidence in completing the task.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +154,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,205 +470,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with various files and some information about the project. There is no clear indication or direct information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository overview with files and some general information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct information about filing an issue. ABI, who prefers to use familiar methods and needs comprehensive information, might not immediately think of this page as a step toward finding information about filing an issue. The lack of explicit instructions or a clear path to filing an issue would likely deter ABI from considering this as a relevant step.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with various files and information about the project. There is no clear indication or direct information about filing an issue. ABI, who prefers to use familiar methods and needs comprehensive information, might not immediately think of this page as a step toward finding information about filing an issue. The lack of explicit instructions or a clear path to filing an issue would likely deter ABI, given their low confidence in unfamiliar computing tasks and preference for process-oriented learning.</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for Abi to understand that clicking it might lead to information about filing an issue. Given Abi's comprehensive information processing style, she would likely read through the options available on the side panel. Additionally, the clear labeling helps mitigate her low computer self-efficacy, as it provides a direct and understandable action to take.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's motivation to accomplish tasks efficiently. The label "Issues" is straightforward and directly related to the subgoal of filing an issue. Abi's comprehensive information processing style would lead her to read the available options on the side panel, and the clear labeling would make her confident in taking this action.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for Abi to understand that clicking it might lead to information about filing an issue. This aligns with Abi's comprehensive information processing style, as she would likely read through the options available on the side panel. Additionally, the clear labeling supports her process-oriented learning style, providing a clear next step without requiring her to tinker or guess.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for ABI to understand that clicking it might lead to information about filing an issue. ABI's comprehensive information processing style would likely lead them to read through the options available on the side panel, and the clear labeling aligns with their preference for process-oriented learning. Therefore, ABI would likely know what to do at this step and feel confident enough to take this action.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for ABI to understand that clicking it might lead to information about filing an issue. ABI's comprehensive information processing style and preference for process-oriented learning would guide them to look for clearly labeled options. The presence of the "Issues" button aligns with ABI's need for clear and direct instructions, making it likely that they will take this action.</t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit information or instructions on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear, step-by-step instructions to feel confident she is making progress. Additionally, her low computer self-efficacy might make her hesitant to proceed without explicit guidance, leading to uncertainty about whether she is on the right track.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates progress, it does not provide explicit information on how to file a new issue. Abi's comprehensive information processing style means she needs clear, detailed instructions to feel confident she is on the right track. Additionally, her low computer self-efficacy might make her uncertain about what to do next without explicit guidance. The presence of a "New issue" button is helpful, but without clear instructions or confirmation that this is the correct next step, Abi might not feel confident she is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit information or guidance on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear instructions or a visible link/button that explicitly states how to file a new issue. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear guidance, as she might not feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, ABI lands on a page listing existing issues. While this indicates progress, it does not provide explicit information or instructions on how to file a new issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately understand that they need to click the "New issue" button to proceed. The page lacks clear guidance or a step-by-step process for filing an issue, which could leave ABI uncertain about whether they are making progress toward their goal.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, ABI lands on a page listing existing issues. While this indicates progress, it does not provide explicit information or instructions on how to file a new issue. ABI, who prefers comprehensive information and clear guidance, might not immediately understand that they need to click the "New issue" button to proceed. The page lacks clear, step-by-step instructions, which could make ABI feel uncertain about whether they are making progress toward their goal. This uncertainty, combined with ABI's low confidence in unfamiliar tasks, could hinder their ability to proceed confidently.</t>
-        </is>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to identify. Given Abi's comprehensive information processing style, she would likely read through the page and notice this button. The clear labeling of the button helps mitigate her low computer self-efficacy, as it provides a direct and understandable action to take. Therefore, Abi would know what to do at this step and feel confident in taking this action.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to notice. The label "New issue" is clear and directly related to Abi's subgoal of filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would recognize that clicking this button is the next logical step toward her goal. The page provides a straightforward path to proceed, which aligns with her need for clear and direct instructions.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it clear and easy to identify. This aligns with Abi's comprehensive information processing style, as she would likely read through the options available on the page and recognize this as the next step. Additionally, the clear labeling supports her process-oriented learning style, providing a clear next step without requiring her to tinker or guess.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easily noticeable. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize this button as the next step in filing an issue. The clear labeling and prominent placement of the button provide sufficient guidance for ABI to understand what to do at this step and feel confident in taking this action.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to identify. ABI, who prefers clear and direct instructions, will likely recognize that clicking this button is the next step toward filing an issue. The button's clear labeling and prominent placement align with ABI's need for straightforward navigation and process-oriented learning, making it likely that they will take this action.</t>
-        </is>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, along with a "Create issue" button. This clear layout and labeling provide Abi with the necessary information to know she is making progress toward her goal. The straightforward design and instructions align with her comprehensive information processing style and help mitigate her low computer self-efficacy by providing a clear path to follow.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, which are standard components for filing an issue. This clear layout and labeling align with Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style. The page provides all the necessary information and fields required to file an issue, making it evident to Abi that she is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking the "New issue" button, Abi is taken to a page titled "New Issue" with fields to fill out for the title, type, and description of the issue. This page clearly indicates that she is in the right place to file a new issue, providing a straightforward form to complete. This aligns with Abi's comprehensive information processing style, as the page provides all necessary fields and options in a clear and organized manner. Additionally, the structured form supports her process-oriented learning style, guiding her through the steps needed to file an issue without requiring her to tinker or guess.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking the "New issue" button, ABI lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, and description of the issue. This clear and structured layout aligns with ABI's preference for comprehensive information and process-oriented learning. ABI will know that they are making progress toward their goal of filing an issue and will have all the necessary information and fields to complete the task.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking the "New issue" button, ABI lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, along with a "Create issue" button. This clear layout and labeling provide ABI with the necessary information to understand that they are on the right track and making progress toward their goal. The straightforward design aligns with ABI's preference for comprehensive information and process-oriented learning, ensuring they have all the information needed to proceed.</t>
-        </is>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>